--- a/f_factor/dP_f_Agulhas/CFD_Results.xlsx
+++ b/f_factor/dP_f_Agulhas/CFD_Results.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\CFD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361CCB9E-252F-4BDA-A245-475A6C1CC47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF9255D-664B-4659-88C2-BBA36E78DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="1960" windowWidth="14830" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-340" yWindow="3500" windowWidth="16100" windowHeight="15370" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cs6" sheetId="1" r:id="rId1"/>
     <sheet name="Cs8" sheetId="2" r:id="rId2"/>
     <sheet name="Cs12" sheetId="3" r:id="rId3"/>
     <sheet name="Cs15" sheetId="4" r:id="rId4"/>
+    <sheet name="Cs10" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t>CS6_V3</t>
   </si>
@@ -75,12 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +795,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EB0762-FF99-490C-8425-94F289D8D98D}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="H1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -803,9 +803,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+    <row r="1" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H1" t="s">
         <v>2</v>
       </c>
@@ -813,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H2">
         <v>95.626999999999995</v>
       </c>
@@ -821,7 +819,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H3">
         <v>352.28</v>
       </c>
@@ -829,7 +827,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H4">
         <v>758.74</v>
       </c>
@@ -837,7 +835,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H5">
         <v>1333.9</v>
       </c>
@@ -845,7 +843,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H6">
         <v>1984.6</v>
       </c>
@@ -853,7 +851,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H7">
         <v>2778.9</v>
       </c>
@@ -861,7 +859,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H8">
         <v>3790.6</v>
       </c>
@@ -869,7 +867,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H9">
         <v>4976.3999999999996</v>
       </c>
@@ -877,7 +875,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H10">
         <v>6308.9</v>
       </c>
@@ -885,7 +883,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H11">
         <v>7529</v>
       </c>
@@ -893,7 +891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H12">
         <v>8956.7999999999993</v>
       </c>
@@ -901,7 +899,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H13">
         <v>10396</v>
       </c>
@@ -909,7 +907,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H14">
         <v>12644</v>
       </c>
@@ -917,7 +915,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H15">
         <v>14368</v>
       </c>
@@ -925,7 +923,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H16">
         <v>16657</v>
       </c>
@@ -1022,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1066EEC0-5D63-4A0E-86D9-055BFDC5ABCC}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1246,4 +1244,236 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CC1426-1C1E-4437-9342-82E2B2535E44}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>144.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>538.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>1144.5999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>1952.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>3011.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>4188.6000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B9">
+        <v>5629.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>7165.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>9060.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>11115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>13361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>15608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>18120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B16">
+        <v>20518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>23114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>26036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>28882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>32752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>36205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>39878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>43792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>47390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>51386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>56473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>60755</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/f_factor/dP_f_Agulhas/CFD_Results.xlsx
+++ b/f_factor/dP_f_Agulhas/CFD_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF9255D-664B-4659-88C2-BBA36E78DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D97574-BCE0-447F-B002-A522C70F206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="3500" windowWidth="16100" windowHeight="15370" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3500" windowWidth="16100" windowHeight="15370" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cs6" sheetId="1" r:id="rId1"/>
@@ -1248,226 +1248,224 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CC1426-1C1E-4437-9342-82E2B2535E44}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J1" sqref="J1:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>144.72</v>
+      </c>
+      <c r="J2">
         <v>0.01</v>
       </c>
-      <c r="B3">
-        <v>144.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>538.22</v>
+      </c>
+      <c r="J3">
         <v>0.02</v>
       </c>
-      <c r="B4">
-        <v>538.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>1144.5999999999999</v>
+      </c>
+      <c r="J4">
         <v>0.03</v>
       </c>
-      <c r="B5">
-        <v>1144.5999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>1952.4</v>
+      </c>
+      <c r="J5">
         <v>0.04</v>
       </c>
-      <c r="B6">
-        <v>1952.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>3011.7</v>
+      </c>
+      <c r="J6">
         <v>0.05</v>
       </c>
-      <c r="B7">
-        <v>3011.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>4188.6000000000004</v>
+      </c>
+      <c r="J7">
         <v>0.06</v>
       </c>
-      <c r="B8">
-        <v>4188.6000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>5629.2</v>
+      </c>
+      <c r="J8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B9">
-        <v>5629.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>7165.1</v>
+      </c>
+      <c r="J9">
         <v>0.08</v>
       </c>
-      <c r="B10">
-        <v>7165.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>9060.1</v>
+      </c>
+      <c r="J10">
         <v>0.09</v>
       </c>
-      <c r="B11">
-        <v>9060.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>11115</v>
+      </c>
+      <c r="J11">
         <v>0.1</v>
       </c>
-      <c r="B12">
-        <v>11115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>13361</v>
+      </c>
+      <c r="J12">
         <v>0.11</v>
       </c>
-      <c r="B13">
-        <v>13361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>15608</v>
+      </c>
+      <c r="J13">
         <v>0.12</v>
       </c>
-      <c r="B14">
-        <v>15608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>18120</v>
+      </c>
+      <c r="J14">
         <v>0.13</v>
       </c>
-      <c r="B15">
-        <v>18120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>20518</v>
+      </c>
+      <c r="J15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B16">
-        <v>20518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>23114</v>
+      </c>
+      <c r="J16">
         <v>0.15</v>
       </c>
-      <c r="B17">
-        <v>23114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>26036</v>
+      </c>
+      <c r="J17">
         <v>0.16</v>
       </c>
-      <c r="B18">
-        <v>26036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>28882</v>
+      </c>
+      <c r="J18">
         <v>0.17</v>
       </c>
-      <c r="B19">
-        <v>28882</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>32752</v>
+      </c>
+      <c r="J19">
         <v>0.18</v>
       </c>
-      <c r="B20">
-        <v>32752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>36205</v>
+      </c>
+      <c r="J20">
         <v>0.19</v>
       </c>
-      <c r="B21">
-        <v>36205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>39878</v>
+      </c>
+      <c r="J21">
         <v>0.2</v>
       </c>
-      <c r="B22">
-        <v>39878</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>43792</v>
+      </c>
+      <c r="J22">
         <v>0.21</v>
       </c>
-      <c r="B23">
-        <v>43792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>47390</v>
+      </c>
+      <c r="J23">
         <v>0.22</v>
       </c>
-      <c r="B24">
-        <v>47390</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>51386</v>
+      </c>
+      <c r="J24">
         <v>0.23</v>
       </c>
-      <c r="B25">
-        <v>51386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>56473</v>
+      </c>
+      <c r="J25">
         <v>0.24</v>
       </c>
-      <c r="B26">
-        <v>56473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>60755</v>
+      </c>
+      <c r="J26">
         <v>0.25</v>
-      </c>
-      <c r="B27">
-        <v>60755</v>
       </c>
     </row>
   </sheetData>
